--- a/kanidaat_data/voorbeeld_kandidaten.xlsx.xlsx
+++ b/kanidaat_data/voorbeeld_kandidaten.xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Projects\HR_Forecasting\kanidaat_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35FF8C5-14D7-47DA-AF54-7EB62A25DC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7402CE-0491-45CD-A883-4D6C2BD60C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1665" yWindow="2745" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="85">
   <si>
     <t>id</t>
   </si>
@@ -601,7 +601,7 @@
   <dimension ref="A1:BC4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,8 +789,8 @@
       <c r="D2" t="s">
         <v>56</v>
       </c>
-      <c r="E2" t="s">
-        <v>56</v>
+      <c r="E2">
+        <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>56</v>
@@ -957,7 +957,7 @@
         <v>56</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>56</v>
